--- a/data/case1/11/P2_13.xlsx
+++ b/data/case1/11/P2_13.xlsx
@@ -56,172 +56,172 @@
   <dimension ref="A1:A33"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="true"/>
+    <col min="1" max="1" width="15.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.095708695876098204</v>
+        <v>0.092826440534025778</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0099999996035471383</v>
+        <v>-0.0099999998057747064</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0089999996063863108</v>
+        <v>-0.0089999998079530741</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.28399375303021657</v>
+        <v>0.28399664880383213</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.04638747378691388</v>
+        <v>-0.0059999998135955579</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.00070508911613131886</v>
+        <v>-0.0059999998070914273</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.019014408321263332</v>
+        <v>-0.019999999773164134</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.019999999518210743</v>
+        <v>-0.019999999770982768</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0059999995859900679</v>
+        <v>-0.0059999998015065614</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.005999999579294979</v>
+        <v>-0.0059999997992505882</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.004499999586442982</v>
+        <v>-0.0044999998027748234</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0059999995766277792</v>
+        <v>-0.0059999997986595055</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0059999995694255404</v>
+        <v>-0.0059999997965070051</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.011999999535021288</v>
+        <v>-0.011999999781711068</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.005999999565540648</v>
+        <v>-0.0059999997955761941</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0059999995639685721</v>
+        <v>-0.0059999997953310569</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0059999995619142155</v>
+        <v>0.0069527809260518936</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0089999995452885173</v>
+        <v>-0.0089999997879406379</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.0089999996087537504</v>
+        <v>-0.056757752870999933</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.008999999605142861</v>
+        <v>-0.0089999998060168451</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0089999996045957431</v>
+        <v>-0.0089999998057743724</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0089999996041392194</v>
+        <v>-0.0089999998056011776</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0089999996028753415</v>
+        <v>-0.0089999998063312603</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.041999999419272349</v>
+        <v>-0.041999999725137016</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.041999999415878619</v>
+        <v>-0.042841264841605664</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0059999996000179578</v>
+        <v>-0.005999999806586942</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0059999995984298948</v>
+        <v>-0.0059999998060673576</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0059999995920447802</v>
+        <v>-0.0059999998034188096</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.0042484502024926485</v>
+        <v>0.013852928675042619</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.019999999510009303</v>
+        <v>-0.019999999767330134</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014999999533017672</v>
+        <v>-0.014999999777305817</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.01734968879944887</v>
+        <v>-0.020999999762799426</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0059999995804460582</v>
+        <v>-0.0066262680789419548</v>
       </c>
     </row>
   </sheetData>
